--- a/biology/Histoire de la zoologie et de la botanique/Frederick_McCoy/Frederick_McCoy.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Frederick_McCoy/Frederick_McCoy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sir Frederick McCoy est un paléontologue britannique, né en 1817 à Dublin et mort le 13 mai 1899 à Brighton Beach.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de Simon McCoy, professeur de matière médicale au Queen’s College de Galway. Il étudie la médecine à Dublin avant de s’intéresser à l’histoire naturelle et à la paléontologie. En 1841, il fait paraître le catalogue des collections du muséum de la Société géologique de Dublin sous le titre de Catalogue of Organic Remains compiled from specimens exhibited in the Rotunda at Dublin. Il est l’assistant de Sir Richard Griffith (1784-1878) et l’assiste dans le classement de ses collections qui servent de base à la publication de A synopsis of the characters of the Carboniferous Limestone Fossils of Ireland en 1844 et de A synopsis of the Silurian Fossils of Ireland en 1846. En 1845, il rejoint le service de recherche géologique britannique et commence à travailler sur la carte géologique de l’Irlande. Il est choisi l’année suivante par Adam Sedgwick (1785-1873) pour s’occuper de la grande collection de fossiles britanniques de la collection associée à la chaire woodwardienne. Sedgwick dira de lui que c’est un excellent naturaliste et un incomparable paléontologue. En août 1849, McCoy devient professeur de géologie et de minéralogie ainsi que le conservateur du muséum du Queen’s College de Belfast.
 Durant ses vacances, il travaille à Cambridge, et fait des excursions avec Sedgwick. Il commence à faire paraître la série intitulée A Detailed Systematic Description of the British Palaeozoic Fossils in the Geological Museum of the University of Cambridge qui sera saluée par Heinrich Georg Bronn (1800-1862), d’Heidelberg comme étant l’un des ouvrages les plus importants en paléontologie.
